--- a/18_Natural_Processing/NIA_DICT/띄어쓰기 제발 되라되라되라_11131242_.xlsx
+++ b/18_Natural_Processing/NIA_DICT/띄어쓰기 제발 되라되라되라_11131242_.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihyeoh/Desktop/Desktop - Jeewon의 iMac/GIT/TIL/18_Natural_Processing/NIA_DICT/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6836EA2-F366-894A-8024-25FDAE15B6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="379">
   <si>
     <t>Raw Sent</t>
   </si>
@@ -109,12 +115,6 @@
     <t>nontuberculous mycobacteria</t>
   </si>
   <si>
-    <t>또한 출생 시 BCG (Bacille of Calmette and Guerin) 예방접종을 받았다.</t>
-  </si>
-  <si>
-    <t>인후 도말 호흡기 바이러스 및 세균 중합효소연쇄반응(polymerase chain reaction) 검사는 음성이었다.</t>
-  </si>
-  <si>
     <t>객담에서의 항산균 도말 검사(acid-fast bacillus smear test)와 결핵균 중합효소연쇄 반응 검사도 모두 음성이었다.</t>
   </si>
   <si>
@@ -487,12 +487,6 @@
     <t>ConsensusSpaces</t>
   </si>
   <si>
-    <t>적대적  M&amp;A를  일종의  시장  규율(market  discipline)로  보는  입장에서는  적대적  M&amp;A에  대한방어는  불가하다고  본다.</t>
-  </si>
-  <si>
-    <t>다만,  P2P  보험에  있어서  도덕적  해이  또는  Moral  Hazard로도  지칭되는보험사기를  법률상  어떻게  정의할지에  대한  검토가  필요하다.</t>
-  </si>
-  <si>
     <t>그  대신  그룹이  보험료를  설정하면  구성원은  해당  보험료로써  가상화폐를  에스크로우(Escrow)  계정으로써  디지털  지갑에  넣는다.</t>
   </si>
   <si>
@@ -520,30 +514,6 @@
     <t>hybrid  mismatch  arrangements</t>
   </si>
   <si>
-    <t>이 행사에는 AVIC, SAC, WIZ, JLS 이노베이션스Innovations, 베이항 대학교Beihang University, 지멘스Siemens, 보잉Boeing 등 많은 산업 기관과 R&amp;D 기관의 참가자들이 참여했다.</t>
-  </si>
-  <si>
-    <t>나에게 있어 두 번째 중요한 주제는 “디지털 트윈digital twin"이다.</t>
-  </si>
-  <si>
-    <t>'월드 카페world café' 세션 중 진행된 2부는 기술위원회technical committee와 산하 분과위원회subcommittee가 스마트 제조에 어떻게 대응하고, 현재 세계에서 가장 뜨거운 주제 중 하나가 된 것에 대해 어떻게 진전을 이룰 수 있을지에 대한 전문가들의 쌍방향 토론이었다.</t>
-  </si>
-  <si>
-    <t>패트릭 램보리Patrick Lamboley는 자동화 시스템 및 통합관련 ISO/TC 184 기술 위원회 위원장, 슈나이더 일렉트릭Schneider Electric의 표준 담당 선임 이사를 맡고 있다.</t>
-  </si>
-  <si>
-    <t>스워프Swope는 고도로 복잡한 시스템을 통해 제조를 해야 하는 보잉과 같은 회사는 업계에서 전반적인 성공을 거두기 위해 표준이 매우 중요하며, 회사의 “제품, 공급 체인과 서비스 제안 등이 무수히 많은 갈래로” 엮여 있다고 말한다.</t>
-  </si>
-  <si>
-    <t>셰필드 대학교Sheffield University 내 첨단 제조 연구센터Advanced Manufacturing Research Center의 통합 제조 그룹 책임자인 벤 모건Ben Morgan은 디 엔지니어The Engineer에 기고한 기사에서 자동화 제조는 사람보다 로봇에게 적합한 작업이라고 지적하며 "자동화 시스템은 정밀도를 더 높일 수 있고, 지루함이나 피곤함을 느끼지도 않는다.</t>
-  </si>
-  <si>
-    <t>Input your words: 스워프Swope는 고도로 복잡한 시스템을 통해 제조를 해야 하는 보잉과 같은 회사는 업계에서 전반적인 성공을 거두기 위해 표준이 매우 중요하며, 회사의 “제품, 공급 체인과 서비스 제안 등이 무수히 많은 갈래로” 엮여 있다고 말한다.</t>
-  </si>
-  <si>
-    <t>당시는 다른 무엇보다도 가격이 중요한 이지젯EasyJet 시대'였던 만큼, 굉장히 어려운 일이었다.</t>
-  </si>
-  <si>
     <t>PwC  및 딜로이트(Deloitte)  등 대형 회계법인는 무엇인가?</t>
   </si>
   <si>
@@ -562,9 +532,6 @@
     <t>controlled substances act</t>
   </si>
   <si>
-    <t>그리스 로마 신화의 이카로스Icarus가 나무로 날개를 만들어 밀랍으로 깃털을 붙여 하늘을 날았던 그 순간부터 인류는 중력을 거스르고 자유롭게 날기 위한 기계와 장치를 설계하고 만들어왔다.</t>
-  </si>
-  <si>
     <t>동  쟁점과  관련하여  스페인  소재  방코  포풀라(Banco  Popular)  은행의  정리사례가  시사하는  바가  있어  살펴보고자  한다.</t>
   </si>
   <si>
@@ -649,9 +616,6 @@
     <t>loiconstitutionnelle</t>
   </si>
   <si>
-    <t xml:space="preserve">부산방문을 마치고 귀국한 중국인들이 부산 관광에서 좋았던 느낌 등을 편리하게 달 수 있도록 우리나라의관광정보 시스템 이외에도 중국의 ‘큐큐(QQ)’를 비롯한 포털 시스템에 지속적으로 안내될 수 있도록 종합적으로 대응할 필요가 있을 것이다. </t>
-  </si>
-  <si>
     <t>다음으로  소비자의  행동을  고관여(high  involvement),  저관여(low  involvement)로구분하여  소비자의  행동특성에  관한  연구를  제시하고  있다.</t>
   </si>
   <si>
@@ -844,9 +808,6 @@
     <t>KATS</t>
   </si>
   <si>
-    <t>ISO(국제표준화기구)는 국가 표준기관(ISO 회원기관)의 전 세계 연맹체이다.</t>
-  </si>
-  <si>
     <t>절대 GHG 배출량은 매스 스트림(mass stream), 예를 들어 연간 CO2e 톤(tCO2e/yr) 단위로 표시한다.</t>
   </si>
   <si>
@@ -946,9 +907,6 @@
     <t>captive</t>
   </si>
   <si>
-    <t>년에는 유럽 개인정보보호법 (General Data Protection Regulations, GDPR)과 같은 법률이 목표로 하는 소비자 신뢰와 관련하여 발생된 명확한 위반으로 인해, 데이터 권리 및 프라이버시에 대한 소비자의 관심이 고조되었다.</t>
-  </si>
-  <si>
     <t>버트랜드 피카드(Bertrand Piccard),세계 최초 무동력 비행 항공기인 솔라 임펄스의 선구자</t>
   </si>
   <si>
@@ -997,9 +955,6 @@
     <t>이벤트 주제로는 적층 제조(additive manufacturing), 건축 및 건설, 대마초, 국가 안보, 벽돌, 농약, 토양, 암석 등을 다루었습니다.</t>
   </si>
   <si>
-    <t>JTE(Journal of Testing and Evaluation) 및 GTJ(Geotechnical Testing Journal) 모두 콘텐츠 가치의 향상을 반영하는 "영향 지수” 상승을 확인했습니다.</t>
-  </si>
-  <si>
     <t>또한 친환경 공공조달(Green Public Procurement)에 듀라브로즈 개념을 도입하기 위한 지침도 마련될 것이다.</t>
   </si>
   <si>
@@ -1018,9 +973,6 @@
     <t>Dow</t>
   </si>
   <si>
-    <t>지식 기반의 친환경 제품 사전 표준화(Knowledge Based Biobased Products’ PreStandardization, KBBPPS) 사업은 이러한 제품에 대한 친환경 내용물 결정과 생분해성 시험체계를 다룬다.</t>
-  </si>
-  <si>
     <t>작게 보면, 행정정보공개 정책부터 데이터 민주주의가 시작되었고 오픈거번먼트(Open Government) 정책부터 본격화 되었다.</t>
   </si>
   <si>
@@ -1048,15 +1000,6 @@
     <t>Random Index: RI</t>
   </si>
   <si>
-    <t>또한 빅데이터 추출을 위한 특성 파악, 매시업 등 데이터전처리(data preprocessing)를 수행 중에 있다.</t>
-  </si>
-  <si>
-    <t>분석을 위한 코드는 R 재단(R foundation)에서 제작·배포하고 있는 무료 상용 프로그램인 R과 서포트 프로그램인 R-studio를 이용하여 작성되었으며, 구조방정식 모형의 적합성 검정은 결정계수(R²)와 적합도(Goodness of Fit, GoF)를 이용하였다.</t>
-  </si>
-  <si>
-    <t>국내에ㅅ는 아직 증기압을 이용한 파암파쇄 시공 현장이 없는 관계로 일본 제조업체(Nippon Kokki ㈜)가 과거 많은 시공을 통하여 수립한 터널공사 적용 진동 추정식을 사용하였다.</t>
-  </si>
-  <si>
     <t>통계적 신뢰도 해석에 많이 사용되는 수명분포는 노말(Normal), 지수(Exponential), 와이블(Weibull) 분포 등이다.</t>
   </si>
   <si>
@@ -1076,12 +1019,6 @@
   </si>
   <si>
     <t>Weibull</t>
-  </si>
-  <si>
-    <t>전체 사고 중 911건이 건설업(S  )에서 발생했고, 그 중 207건이 물체를 연결/조립/설치/해체(T  )하던 중에 발생했다.</t>
-  </si>
-  <si>
-    <t>배치 계층에서는 긴 주기(long-term) 데이터를 주기적으로 미리 처리하여 사용자의 요구에 따라 그 결과를 제공한다.</t>
   </si>
   <si>
     <t>오픈거번먼트(Open Government) 정책부터 본격화 되었다.</t>
@@ -1225,8 +1162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,6 +1200,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1309,7 +1254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1341,9 +1286,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1375,6 +1338,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1550,14 +1531,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="76" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1582,7 +1568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1593,7 +1579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1604,7 +1590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1615,7 +1601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1626,7 +1612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1637,7 +1623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1648,7 +1634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1659,7 +1645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1670,1387 +1656,1387 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>77</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>89</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>92</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
         <v>94</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>95</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="C33" t="s">
         <v>97</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>98</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B34" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
         <v>100</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>101</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
         <v>103</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>104</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
         <v>106</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>107</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>110</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
         <v>112</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>113</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="C39" t="s">
         <v>115</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>116</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
         <v>118</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>119</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="C41" t="s">
         <v>121</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>122</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
         <v>124</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>125</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B43" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="C43" t="s">
         <v>127</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>128</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
         <v>130</v>
       </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>131</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="C45" t="s">
         <v>133</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>134</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>137</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="C47" t="s">
         <v>139</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>140</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="C48" t="s">
         <v>142</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>143</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="C49" t="s">
         <v>145</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>146</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="B50" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>148</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="C51" t="s">
         <v>150</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>151</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="B52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>153</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="B53" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>155</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="C54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" t="s">
         <v>159</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C55" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="B56" t="s">
         <v>162</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C56" t="s">
         <v>163</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="B57" t="s">
         <v>165</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C57" t="s">
         <v>166</v>
       </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>176</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C61" t="s">
         <v>177</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="B62" t="s">
         <v>179</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C62" t="s">
         <v>180</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="C63" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>183</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B64" t="s">
         <v>184</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C64" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>186</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B65" t="s">
         <v>187</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C65" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="B61" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>189</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B66" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="C66" t="s">
         <v>191</v>
       </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>192</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B67" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="B63" t="s">
+      <c r="C67" t="s">
         <v>194</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="B68" t="s">
         <v>196</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C68" t="s">
         <v>197</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="B69" t="s">
         <v>199</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C69" t="s">
         <v>200</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="C70" t="s">
         <v>202</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>203</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B71" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="C71" t="s">
         <v>205</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>206</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C72" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>208</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C73" t="s">
         <v>209</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="C74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>212</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C75" t="s">
         <v>213</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="B70" t="s">
+      <c r="C76" t="s">
         <v>215</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="B77" t="s">
         <v>217</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C77" t="s">
         <v>218</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="B72" t="s">
+      <c r="C78" t="s">
         <v>220</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="B73" t="s">
+      <c r="B79" t="s">
         <v>222</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C79" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="B74" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>224</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B80" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="B75" t="s">
+      <c r="C80" t="s">
         <v>226</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="B76" t="s">
+      <c r="B81" t="s">
         <v>228</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C81" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>230</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B82" t="s">
         <v>231</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C82" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="B78" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>233</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B83" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="C83" t="s">
         <v>235</v>
       </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>236</v>
       </c>
-      <c r="C79" t="s">
+      <c r="B84" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="C84" t="s">
         <v>238</v>
       </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>239</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B85" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="C85" t="s">
         <v>241</v>
       </c>
-      <c r="B81" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>242</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C86" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>244</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B87" t="s">
         <v>245</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C87" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>247</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B88" t="s">
         <v>248</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C88" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>250</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B89" t="s">
         <v>251</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C89" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>253</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B90" t="s">
         <v>254</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C90" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="B86" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>256</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B91" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="C91" t="s">
         <v>258</v>
       </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>259</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B92" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+      <c r="C92" t="s">
         <v>261</v>
       </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>262</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B93" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
+      <c r="C93" t="s">
         <v>264</v>
       </c>
-      <c r="B89" t="s">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>265</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C94" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>267</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B95" t="s">
         <v>268</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C95" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>270</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C96" t="s">
         <v>271</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="B97" t="s">
         <v>273</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C97" t="s">
         <v>274</v>
       </c>
-      <c r="C92" t="s">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="B98" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" t="s">
         <v>277</v>
       </c>
-      <c r="B93" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>278</v>
       </c>
-      <c r="C93" t="s">
+      <c r="B99" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="B94" t="s">
+      <c r="C99" t="s">
         <v>280</v>
       </c>
-      <c r="C94" t="s">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="C100" t="s">
         <v>282</v>
       </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>283</v>
       </c>
-      <c r="C95" t="s">
+      <c r="B101" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="B96" t="s">
+      <c r="C101" t="s">
         <v>285</v>
       </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
+      <c r="C102" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>287</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B103" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>288</v>
       </c>
-      <c r="C97" t="s">
+      <c r="B104" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="B105" t="s">
         <v>290</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C105" t="s">
         <v>291</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="B106" t="s">
         <v>293</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C106" t="s">
         <v>294</v>
       </c>
-      <c r="C99" t="s">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="B100" t="s">
+      <c r="B107" t="s">
         <v>296</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C107" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>298</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B108" t="s">
         <v>299</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C108" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="B102" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>301</v>
       </c>
-      <c r="C102" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="C109" t="s">
         <v>302</v>
       </c>
-      <c r="B103" t="s">
-        <v>203</v>
-      </c>
-      <c r="C103" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>303</v>
       </c>
-      <c r="B104" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="B110" t="s">
         <v>304</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C110" t="s">
         <v>305</v>
       </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
+      <c r="B111" t="s">
         <v>307</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C111" t="s">
         <v>308</v>
       </c>
-      <c r="C106" t="s">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>181</v>
+      </c>
+      <c r="C112" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>310</v>
+      </c>
+      <c r="B113" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>311</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B114" t="s">
         <v>312</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C114" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>314</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B115" t="s">
         <v>315</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C115" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="B109" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>317</v>
       </c>
-      <c r="C109" t="s">
+      <c r="B116" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
+      <c r="C116" t="s">
         <v>319</v>
       </c>
-      <c r="B110" t="s">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>320</v>
       </c>
-      <c r="C110" t="s">
+      <c r="B117" t="s">
+        <v>149</v>
+      </c>
+      <c r="C117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
+      <c r="B120" t="s">
         <v>322</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C120" t="s">
         <v>323</v>
       </c>
-      <c r="C111" t="s">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="B112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="C121" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>326</v>
       </c>
-      <c r="B113" t="s">
-        <v>323</v>
-      </c>
-      <c r="C113" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
+      <c r="B122" t="s">
+        <v>327</v>
+      </c>
+      <c r="C122" t="s">
         <v>328</v>
       </c>
-      <c r="B114" t="s">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
         <v>329</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C123" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
         <v>331</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C124" t="s">
         <v>332</v>
       </c>
-      <c r="C115" t="s">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
+      <c r="B125" t="s">
+        <v>318</v>
+      </c>
+      <c r="C125" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>334</v>
+      </c>
+      <c r="B126" t="s">
         <v>335</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C126" t="s">
         <v>336</v>
       </c>
-      <c r="C116" t="s">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
+      <c r="B127" t="s">
         <v>338</v>
       </c>
-      <c r="B117" t="s">
-        <v>151</v>
-      </c>
-      <c r="C117" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="B118" t="s">
-        <v>153</v>
-      </c>
-      <c r="C118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="B119" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
+      <c r="C127" t="s">
         <v>339</v>
       </c>
-      <c r="B120" t="s">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
         <v>340</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C128" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="B121" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>342</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B129" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
+      <c r="C129" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>345</v>
+      </c>
+      <c r="B130" t="s">
+        <v>346</v>
+      </c>
+      <c r="C130" t="s">
         <v>347</v>
       </c>
-      <c r="B122" t="s">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>348</v>
       </c>
-      <c r="C122" t="s">
+      <c r="B131" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="B123" t="s">
+      <c r="C131" t="s">
         <v>350</v>
       </c>
-      <c r="C123" t="s">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="B124" t="s">
+      <c r="B132" t="s">
         <v>352</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C132" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>354</v>
+      </c>
+      <c r="C133" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>356</v>
       </c>
-      <c r="B125" t="s">
-        <v>336</v>
-      </c>
-      <c r="C125" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
+      <c r="B134" t="s">
         <v>357</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C134" t="s">
         <v>358</v>
       </c>
-      <c r="C126" t="s">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
+      <c r="B135" t="s">
         <v>360</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C135" t="s">
         <v>361</v>
       </c>
-      <c r="C127" t="s">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="B128" t="s">
+      <c r="B136" t="s">
         <v>363</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C136" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
         <v>365</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C137" t="s">
         <v>366</v>
       </c>
-      <c r="C129" t="s">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
+      <c r="C138" t="s">
         <v>368</v>
       </c>
-      <c r="B130" t="s">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
         <v>369</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C139" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
         <v>371</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C140" t="s">
         <v>372</v>
       </c>
-      <c r="C131" t="s">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+      <c r="C141" t="s">
         <v>374</v>
       </c>
-      <c r="B132" t="s">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>375</v>
       </c>
-      <c r="C132" t="s">
+      <c r="B142" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="B133" t="s">
+      <c r="C142" t="s">
         <v>377</v>
       </c>
-      <c r="C133" t="s">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>162</v>
+      </c>
+      <c r="C143" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>379</v>
-      </c>
-      <c r="B134" t="s">
-        <v>380</v>
-      </c>
-      <c r="C134" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>382</v>
-      </c>
-      <c r="B135" t="s">
-        <v>383</v>
-      </c>
-      <c r="C135" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>385</v>
-      </c>
-      <c r="B136" t="s">
-        <v>386</v>
-      </c>
-      <c r="C136" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="B137" t="s">
-        <v>388</v>
-      </c>
-      <c r="C137" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="B138" t="s">
-        <v>390</v>
-      </c>
-      <c r="C138" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="B139" t="s">
-        <v>392</v>
-      </c>
-      <c r="C139" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="B140" t="s">
-        <v>394</v>
-      </c>
-      <c r="C140" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="B141" t="s">
-        <v>396</v>
-      </c>
-      <c r="C141" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>398</v>
-      </c>
-      <c r="B142" t="s">
-        <v>399</v>
-      </c>
-      <c r="C142" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="B143" t="s">
-        <v>166</v>
-      </c>
-      <c r="C143" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>401</v>
-      </c>
       <c r="B144" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C144" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>68</v>
+      </c>
+      <c r="B145" t="s">
+        <v>69</v>
+      </c>
+      <c r="C145" t="s">
         <v>70</v>
-      </c>
-      <c r="B145" t="s">
-        <v>71</v>
-      </c>
-      <c r="C145" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
